--- a/MotsPendu.xlsx
+++ b/MotsPendu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicegoulley/Documents/PythonTraining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicegoulley/Documents/dossier sans titre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C317D64A-0252-D24F-B5A9-FB8471F3CAD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51994348-D8FA-AF42-AF68-77F2C0B8EDAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{3CD33FC8-679E-D048-92A7-7942A4C9F3D5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>sushi</t>
   </si>
@@ -82,14 +82,25 @@
   </si>
   <si>
     <t>potiron</t>
+  </si>
+  <si>
+    <t>Liste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -117,8 +128,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,91 +445,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C999D3-125E-3F4E-A9FA-E3567F871455}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>

--- a/MotsPendu.xlsx
+++ b/MotsPendu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicegoulley/Documents/dossier sans titre/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51994348-D8FA-AF42-AF68-77F2C0B8EDAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E7B1DC-FCDB-2C47-BF07-923A109EB45A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{3CD33FC8-679E-D048-92A7-7942A4C9F3D5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>sushi</t>
   </si>
@@ -82,25 +82,14 @@
   </si>
   <si>
     <t>potiron</t>
-  </si>
-  <si>
-    <t>Liste</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -128,9 +117,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,96 +433,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C999D3-125E-3F4E-A9FA-E3567F871455}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>16</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>

--- a/MotsPendu.xlsx
+++ b/MotsPendu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicegoulley/Documents/dossier sans titre/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alicegoulley/Documents/PythonTraining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E7B1DC-FCDB-2C47-BF07-923A109EB45A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D5CA87-2A42-DF46-85A1-8050BC389883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16400" xr2:uid="{3CD33FC8-679E-D048-92A7-7942A4C9F3D5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>sushi</t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>potiron</t>
+  </si>
+  <si>
+    <t>Liste</t>
+  </si>
+  <si>
+    <t>coucou</t>
+  </si>
+  <si>
+    <t>broderie</t>
+  </si>
+  <si>
+    <t>yoda</t>
+  </si>
+  <si>
+    <t>pingouin</t>
   </si>
 </sst>
 </file>
@@ -433,92 +448,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9C999D3-125E-3F4E-A9FA-E3567F871455}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
